--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -528,10 +528,10 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.8671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.67" customWidth="1" style="10" min="1" max="1"/>
     <col width="14.21" customWidth="1" style="10" min="2" max="2"/>
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:37:23</t>
+          <t>2023-12-28 16:43:22</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:37:23</t>
+          <t>2023-12-28 16:43:22</t>
         </is>
       </c>
     </row>
@@ -737,15 +737,44 @@
       <c r="K4" s="18" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="11">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="17" t="n"/>
-      <c r="I5" s="14" t="n"/>
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>Cliente-03@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Cliente 03</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>Este es un mensaje automatico, debe pagar antes del día</t>
+        </is>
+      </c>
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>Consulta de pago</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="n">
+        <v>18495</v>
+      </c>
+      <c r="F5" s="16" t="n">
+        <v>45290</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="H5" s="17">
+        <f>com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>
+        <v/>
+      </c>
+      <c r="I5" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="18" t="n"/>
     </row>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -528,10 +528,10 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.90234375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.67" customWidth="1" style="10" min="1" max="1"/>
     <col width="14.21" customWidth="1" style="10" min="2" max="2"/>
@@ -630,7 +630,7 @@
         <v>45290</v>
       </c>
       <c r="G2" s="14" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H2" s="17">
         <f>com.sun.star.sheet.addin.Analysis.getMround(G2,1)</f>
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:43:22</t>
+          <t>2023-12-28 16:48:04</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>45290</v>
       </c>
       <c r="G3" s="14" t="n">
-        <v>98.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H3" s="17">
         <f>com.sun.star.sheet.addin.Analysis.getMround(G3,1)</f>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 16:43:22</t>
+          <t>2023-12-28 16:48:04</t>
         </is>
       </c>
     </row>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.921875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:20:10</t>
+          <t>2023-12-28 17:29:53</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:20:10</t>
+          <t>2023-12-28 17:29:53</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>45290</v>
       </c>
       <c r="G5" s="14" t="n">
-        <v>98.2</v>
+        <v>55.4</v>
       </c>
       <c r="H5" s="17">
         <f>com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:29:53</t>
+          <t>2023-12-28 17:32:47</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:29:53</t>
+          <t>2023-12-28 17:32:47</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>45290</v>
       </c>
       <c r="G5" s="14" t="n">
-        <v>55.4</v>
+        <v>53</v>
       </c>
       <c r="H5" s="17">
         <f>com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:32:47</t>
+          <t>2023-12-28 17:34:45</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:32:47</t>
+          <t>2023-12-28 17:34:45</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>45290</v>
       </c>
       <c r="G5" s="14" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="17">
         <f>com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:34:45</t>
+          <t>2023-12-28 17:39:03</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:34:45</t>
+          <t>2023-12-28 17:39:03</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>45290</v>
       </c>
       <c r="G5" s="14" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H5" s="17">
         <f>com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.921875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -644,7 +644,7 @@
       <c r="J2" s="14" t="n"/>
       <c r="K2" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:39:03</t>
+          <t>2023-12-28 17:41:22</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="18" t="inlineStr">
         <is>
-          <t>2023-12-28 17:39:03</t>
+          <t>2023-12-28 17:41:22</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>45290</v>
       </c>
       <c r="G5" s="14" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H5" s="17">
         <f>com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t xml:space="preserve">CORREO</t>
   </si>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">jpradoar@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jony</t>
+    <t xml:space="preserve">Cliente-01@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente 01</t>
   </si>
   <si>
     <t xml:space="preserve">Este es un mensaje automatico, debe pagar antes del día</t>
@@ -67,7 +67,25 @@
     <t xml:space="preserve">Consulta de pago</t>
   </si>
   <si>
-    <t xml:space="preserve">si</t>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente-02@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente-03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente-04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente 04</t>
   </si>
 </sst>
 </file>
@@ -300,7 +318,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,11 +390,11 @@
         <v>45290</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4</v>
+        <v>99.6</v>
       </c>
       <c r="H2" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getMround(G2,1)</f>
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
@@ -385,41 +403,98 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>18495</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>45290</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getMround(G3,1)</f>
+        <v>99</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>18495</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>45290</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getMround(G4,1)</f>
+        <v>98</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>18495</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>45290</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="8"/>
     </row>
@@ -612,7 +687,7 @@
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="jpradoar@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId1" display="Cliente-04@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -55,10 +55,10 @@
     <t xml:space="preserve">TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente-01@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente 01</t>
+    <t xml:space="preserve">Cliente-A@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente A</t>
   </si>
   <si>
     <t xml:space="preserve">Este es un mensaje automatico, debe pagar antes del día</t>
@@ -70,22 +70,22 @@
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente-02@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente-03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente-04@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente 04</t>
+    <t xml:space="preserve">Cliente-B@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente-C@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente-D@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente D</t>
   </si>
 </sst>
 </file>
@@ -318,10 +318,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.21"/>
@@ -454,11 +454,11 @@
         <v>45290</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>98.2</v>
+        <v>44.2</v>
       </c>
       <c r="H4" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getMround(G4,1)</f>
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>15</v>
@@ -486,11 +486,11 @@
         <v>45290</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getMround(G5,1)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>15</v>
@@ -686,9 +686,6 @@
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="Cliente-04@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/new_clients.xlsx
+++ b/new_clients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve">CORREO</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cliente D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,7 +496,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="8"/>
